--- a/Early March/prelim_feb.xlsx
+++ b/Early March/prelim_feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24100" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="23480" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1297">
   <si>
     <t>Site</t>
   </si>
@@ -2058,48 +2058,12 @@
     <t>Renfrew, C. et al 1968; Buchholz, H.G. 1971</t>
   </si>
   <si>
-    <t>Fikirtepe</t>
-  </si>
-  <si>
-    <t>Northern Anatolia</t>
-  </si>
-  <si>
-    <t>40.966667</t>
-  </si>
-  <si>
-    <t>29.066667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not in ASPRO. All are FT. No specific source can be determined. </t>
-  </si>
-  <si>
-    <t>Ozdogan, M. 1983; Ozdogan, M. and Gatsov, I. 1998; Gatsov, I. 2006; Gatsov, I. 2003; Bigazzi, G. et al 1993; Gatsov, I. 2003; Gatsov, I. 2009</t>
-  </si>
-  <si>
-    <t>Bigazzi, G. et al 1993</t>
-  </si>
-  <si>
     <t>FT</t>
   </si>
   <si>
-    <t>Pendik</t>
-  </si>
-  <si>
     <t>Western Anatolia</t>
   </si>
   <si>
-    <t>40.866667</t>
-  </si>
-  <si>
-    <t>29.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not in ASPRO. All are FT. </t>
-  </si>
-  <si>
-    <t>Ozdogan, M. 1983; Ozdogan, M. and Gatsov, I. 1998; Gatsov, I. 2006; Gatsov, I. 2003; Bigazzi, G. et al 1993; Gatsov, I. 2003; Gatsov, I. 2009; Bigazzi, G. 1998</t>
-  </si>
-  <si>
     <t>Ilipinar</t>
   </si>
   <si>
@@ -2109,52 +2073,10 @@
     <t>29.3</t>
   </si>
   <si>
-    <t>Phase X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not in ASPRO. Some are FT. </t>
   </si>
   <si>
-    <t>Ozdogan, M. and Gatsov, I. 1998; Gatsov, I. 2003; Bigazzi, G. 1993; gatsov, I. 2001; Gatsov, I. 2009; Roodenberg, J.J. et al 1995; Roodenberg, J.J. et al 2001; Roodenberg, J.J. et al 2008; Roodenberg, J.J. et al 1990</t>
-  </si>
-  <si>
-    <t>Bigazzi, G. et al 1995</t>
-  </si>
-  <si>
     <t>INAA; FT</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>7.36</t>
-  </si>
-  <si>
-    <t>Coskuntepe</t>
-  </si>
-  <si>
-    <t>39.483333</t>
-  </si>
-  <si>
-    <t>26.083333</t>
-  </si>
-  <si>
-    <t>Takaoglu, T. 2005; Perles, C. et al 2011</t>
-  </si>
-  <si>
-    <t>Perles, C. et al 2011</t>
-  </si>
-  <si>
-    <t>XRF; LA-HR-ICP-MS</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>700</t>
   </si>
   <si>
     <t>Hacilar</t>
@@ -3806,9 +3728,6 @@
   </si>
   <si>
     <t>37.066667</t>
-  </si>
-  <si>
-    <t>Late Neolithic - GH IB1</t>
   </si>
   <si>
     <t xml:space="preserve">I must still input Epi-Palaeolithic later. </t>
@@ -4054,8 +3973,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4134,15 +4055,17 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4472,10 +4395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF207"/>
+  <dimension ref="A1:BF202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW75" workbookViewId="0">
-      <selection activeCell="BD86" sqref="BD86"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4658,7 +4581,7 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="2" t="s">
-        <v>1252</v>
+        <v>1226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>391</v>
@@ -4670,16 +4593,16 @@
         <v>61</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1253</v>
+        <v>1227</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1254</v>
+        <v>1228</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>1255</v>
+        <v>1229</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>311</v>
@@ -4799,7 +4722,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="2" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>59</v>
@@ -4811,19 +4734,19 @@
         <v>254</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>1208</v>
+        <v>1182</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>91</v>
@@ -5005,7 +4928,7 @@
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2" t="s">
-        <v>1212</v>
+        <v>1186</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>59</v>
@@ -5017,25 +4940,25 @@
         <v>305</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>529</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1213</v>
+        <v>1187</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>1214</v>
+        <v>1188</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>1214</v>
+        <v>1188</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>618</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="AK9" s="21">
         <v>20</v>
@@ -5143,7 +5066,7 @@
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2" t="s">
-        <v>1283</v>
+        <v>1256</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>70</v>
@@ -5155,22 +5078,22 @@
         <v>109</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>473</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>1210</v>
+        <v>1184</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>1285</v>
+        <v>1258</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>1282</v>
+        <v>1255</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>91</v>
@@ -5440,7 +5363,7 @@
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>70</v>
@@ -5452,25 +5375,25 @@
         <v>254</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>1210</v>
+        <v>1184</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>91</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>1211</v>
+        <v>1185</v>
       </c>
       <c r="AI18" s="21">
         <v>36</v>
@@ -5540,7 +5463,7 @@
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2" t="s">
-        <v>1046</v>
+        <v>1020</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>96</v>
@@ -5558,13 +5481,13 @@
         <v>508</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>1051</v>
+        <v>1025</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>1052</v>
+        <v>1026</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>69</v>
@@ -5576,7 +5499,7 @@
         <v>141</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>1054</v>
+        <v>1028</v>
       </c>
       <c r="Z20" s="22" t="s">
         <v>59</v>
@@ -5839,7 +5762,7 @@
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2" t="s">
-        <v>1069</v>
+        <v>1043</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>96</v>
@@ -5851,22 +5774,22 @@
         <v>109</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1070</v>
+        <v>1044</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>1071</v>
+        <v>1045</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>1072</v>
+        <v>1046</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>1073</v>
+        <v>1047</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>1073</v>
+        <v>1047</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>70</v>
@@ -5880,7 +5803,7 @@
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>96</v>
@@ -5892,10 +5815,10 @@
         <v>82</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>245</v>
@@ -6012,7 +5935,7 @@
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2" t="s">
-        <v>1226</v>
+        <v>1200</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>96</v>
@@ -6024,25 +5947,25 @@
         <v>428</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1227</v>
+        <v>1201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>1228</v>
+        <v>1202</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>1229</v>
+        <v>1203</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>1230</v>
+        <v>1204</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>1231</v>
+        <v>1205</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>1232</v>
+        <v>1206</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>260</v>
@@ -6051,7 +5974,7 @@
         <v>96</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>1233</v>
+        <v>1207</v>
       </c>
       <c r="X31" s="18" t="s">
         <v>59</v>
@@ -6062,7 +5985,7 @@
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>96</v>
@@ -6074,10 +5997,10 @@
         <v>197</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>245</v>
@@ -6097,7 +6020,7 @@
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2" t="s">
-        <v>1263</v>
+        <v>1236</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>96</v>
@@ -6109,25 +6032,25 @@
         <v>109</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1264</v>
+        <v>1237</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>1267</v>
+        <v>1240</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>355</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>1268</v>
+        <v>1241</v>
       </c>
       <c r="O33" s="15" t="s">
         <v>133</v>
@@ -6244,7 +6167,7 @@
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2" t="s">
-        <v>1074</v>
+        <v>1048</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>96</v>
@@ -6256,19 +6179,19 @@
         <v>109</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>474</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
       <c r="N36" s="14" t="s">
         <v>347</v>
@@ -6397,7 +6320,7 @@
         <v>412</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>414</v>
@@ -6409,7 +6332,7 @@
         <v>416</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="N39" s="14" t="s">
         <v>347</v>
@@ -7347,7 +7270,7 @@
     </row>
     <row r="58" spans="1:58">
       <c r="A58" s="2" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>141</v>
@@ -7359,25 +7282,25 @@
         <v>254</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="N58" s="22" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="O58" s="15" t="s">
         <v>96</v>
@@ -7386,7 +7309,7 @@
         <v>283</v>
       </c>
       <c r="R58" s="22" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="S58" s="22" t="s">
         <v>264</v>
@@ -7400,7 +7323,7 @@
     </row>
     <row r="59" spans="1:58">
       <c r="A59" s="2" t="s">
-        <v>1078</v>
+        <v>1052</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>141</v>
@@ -7412,19 +7335,19 @@
         <v>109</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>413</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>1080</v>
+        <v>1054</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>1080</v>
+        <v>1054</v>
       </c>
       <c r="N59" s="14" t="s">
         <v>356</v>
@@ -7438,7 +7361,7 @@
     </row>
     <row r="60" spans="1:58">
       <c r="A60" s="2" t="s">
-        <v>1243</v>
+        <v>1217</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>141</v>
@@ -7450,22 +7373,22 @@
         <v>428</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1244</v>
+        <v>1218</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>1245</v>
+        <v>1219</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>1246</v>
+        <v>1220</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>1247</v>
+        <v>1221</v>
       </c>
       <c r="L60" s="13" t="s">
         <v>355</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>1248</v>
+        <v>1222</v>
       </c>
       <c r="O60" s="15" t="s">
         <v>96</v>
@@ -7688,37 +7611,37 @@
     </row>
     <row r="65" spans="1:58">
       <c r="A65" s="2" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>428</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1311</v>
+        <v>1284</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>1314</v>
+        <v>1287</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="O65" s="15" t="s">
         <v>262</v>
@@ -7727,10 +7650,10 @@
         <v>262</v>
       </c>
       <c r="R65" s="22" t="s">
-        <v>1317</v>
+        <v>1290</v>
       </c>
       <c r="S65" s="22" t="s">
-        <v>1318</v>
+        <v>1291</v>
       </c>
       <c r="X65" s="22" t="s">
         <v>96</v>
@@ -7803,7 +7726,7 @@
     </row>
     <row r="67" spans="1:58">
       <c r="A67" s="2" t="s">
-        <v>1226</v>
+        <v>1200</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>141</v>
@@ -7815,25 +7738,25 @@
         <v>428</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>1227</v>
+        <v>1201</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>1228</v>
+        <v>1202</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>1271</v>
+        <v>1244</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>1272</v>
+        <v>1245</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>1231</v>
+        <v>1205</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>1232</v>
+        <v>1206</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>260</v>
@@ -7842,7 +7765,7 @@
         <v>363</v>
       </c>
       <c r="P67" s="22" t="s">
-        <v>1273</v>
+        <v>1246</v>
       </c>
       <c r="AJ67" s="22" t="s">
         <v>170</v>
@@ -8018,7 +7941,7 @@
     </row>
     <row r="71" spans="1:58">
       <c r="A71" s="2" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>141</v>
@@ -8030,25 +7953,25 @@
         <v>254</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="G71" s="22" t="s">
         <v>474</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="N71" s="14" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="O71" s="15" t="s">
         <v>228</v>
@@ -8118,7 +8041,7 @@
     </row>
     <row r="73" spans="1:58">
       <c r="A73" s="2" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>141</v>
@@ -8127,25 +8050,25 @@
         <v>120</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1288</v>
+        <v>1261</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>1289</v>
+        <v>1262</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>1290</v>
+        <v>1263</v>
       </c>
       <c r="I73" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
       <c r="L73" s="13" t="s">
-        <v>1282</v>
+        <v>1255</v>
       </c>
       <c r="N73" s="14" t="s">
         <v>91</v>
@@ -8389,7 +8312,7 @@
     </row>
     <row r="78" spans="1:58">
       <c r="A78" s="2" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>141</v>
@@ -8401,28 +8324,28 @@
         <v>428</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="X78" s="18" t="s">
-        <v>1159</v>
+        <v>1133</v>
       </c>
       <c r="Z78" s="22" t="s">
         <v>182</v>
@@ -8436,7 +8359,7 @@
     </row>
     <row r="79" spans="1:58">
       <c r="A79" s="22" t="s">
-        <v>1323</v>
+        <v>1296</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>133</v>
@@ -8489,7 +8412,7 @@
     </row>
     <row r="80" spans="1:58">
       <c r="A80" s="2" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>133</v>
@@ -8501,19 +8424,19 @@
         <v>382</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="N80" s="14" t="s">
         <v>169</v>
@@ -8627,7 +8550,7 @@
     </row>
     <row r="83" spans="1:58">
       <c r="A83" s="2" t="s">
-        <v>1226</v>
+        <v>1200</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>133</v>
@@ -8639,25 +8562,25 @@
         <v>428</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>1227</v>
+        <v>1201</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>1228</v>
+        <v>1202</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>1274</v>
+        <v>1247</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>1275</v>
+        <v>1248</v>
       </c>
       <c r="I83" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>1231</v>
+        <v>1205</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>1232</v>
+        <v>1206</v>
       </c>
       <c r="N83" s="14" t="s">
         <v>260</v>
@@ -8666,7 +8589,7 @@
         <v>70</v>
       </c>
       <c r="P83" s="22" t="s">
-        <v>1276</v>
+        <v>1249</v>
       </c>
       <c r="X83" s="22" t="s">
         <v>70</v>
@@ -8965,7 +8888,7 @@
     </row>
     <row r="90" spans="1:58">
       <c r="A90" s="2" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>133</v>
@@ -8977,10 +8900,10 @@
         <v>109</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>456</v>
@@ -8992,7 +8915,7 @@
         <v>355</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="O90" s="15" t="s">
         <v>141</v>
@@ -9159,7 +9082,7 @@
     </row>
     <row r="94" spans="1:58">
       <c r="A94" s="2" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>133</v>
@@ -9171,10 +9094,10 @@
         <v>382</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>1065</v>
+        <v>1039</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>66</v>
@@ -9183,10 +9106,10 @@
         <v>252</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
       <c r="L94" s="13" t="s">
-        <v>1067</v>
+        <v>1041</v>
       </c>
       <c r="N94" s="14" t="s">
         <v>169</v>
@@ -9198,7 +9121,7 @@
         <v>608</v>
       </c>
       <c r="S94" s="22" t="s">
-        <v>1068</v>
+        <v>1042</v>
       </c>
       <c r="X94" s="22" t="s">
         <v>262</v>
@@ -9253,7 +9176,7 @@
     </row>
     <row r="96" spans="1:58">
       <c r="A96" s="2" t="s">
-        <v>1199</v>
+        <v>1173</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>133</v>
@@ -9265,22 +9188,22 @@
         <v>109</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>1200</v>
+        <v>1174</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>1201</v>
+        <v>1175</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>1202</v>
+        <v>1176</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>1203</v>
+        <v>1177</v>
       </c>
       <c r="L96" s="13" t="s">
-        <v>1204</v>
+        <v>1178</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="O96" s="15" t="s">
         <v>92</v>
@@ -9421,7 +9344,7 @@
         <v>412</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="H99" s="22" t="s">
         <v>414</v>
@@ -9433,7 +9356,7 @@
         <v>416</v>
       </c>
       <c r="L99" s="13" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="N99" s="14" t="s">
         <v>347</v>
@@ -9462,7 +9385,7 @@
     </row>
     <row r="100" spans="1:58">
       <c r="A100" s="2" t="s">
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>133</v>
@@ -9474,25 +9397,25 @@
         <v>109</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>1056</v>
+        <v>1030</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>1057</v>
+        <v>1031</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>1059</v>
+        <v>1033</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>1061</v>
+        <v>1035</v>
       </c>
       <c r="O100" s="15" t="s">
         <v>170</v>
@@ -9504,7 +9427,7 @@
         <v>170</v>
       </c>
       <c r="R100" s="22" t="s">
-        <v>1062</v>
+        <v>1036</v>
       </c>
       <c r="X100" s="18" t="s">
         <v>92</v>
@@ -9621,34 +9544,34 @@
     </row>
     <row r="103" spans="1:58">
       <c r="A103" s="2" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>428</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>1311</v>
+        <v>1284</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>1319</v>
+        <v>1292</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="L103" s="13" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="O103" s="15" t="s">
         <v>231</v>
@@ -9657,7 +9580,7 @@
         <v>128</v>
       </c>
       <c r="R103" s="22" t="s">
-        <v>1320</v>
+        <v>1293</v>
       </c>
       <c r="S103" s="22" t="s">
         <v>70</v>
@@ -9674,7 +9597,7 @@
     </row>
     <row r="104" spans="1:58">
       <c r="A104" s="2" t="s">
-        <v>1234</v>
+        <v>1208</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>133</v>
@@ -9692,31 +9615,31 @@
         <v>559</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>1235</v>
+        <v>1209</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>1236</v>
+        <v>1210</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>1237</v>
+        <v>1211</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>1238</v>
+        <v>1212</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>1239</v>
+        <v>1213</v>
       </c>
       <c r="O104" s="15" t="s">
         <v>93</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>1240</v>
+        <v>1214</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>1241</v>
+        <v>1215</v>
       </c>
       <c r="S104" s="22" t="s">
-        <v>1242</v>
+        <v>1216</v>
       </c>
       <c r="U104" s="22" t="s">
         <v>59</v>
@@ -9730,7 +9653,7 @@
     </row>
     <row r="105" spans="1:58">
       <c r="A105" s="2" t="s">
-        <v>1184</v>
+        <v>1158</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>133</v>
@@ -9742,22 +9665,22 @@
         <v>82</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>1185</v>
+        <v>1159</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="N105" s="14" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="O105" s="15" t="s">
         <v>469</v>
@@ -9868,7 +9791,7 @@
     </row>
     <row r="108" spans="1:58">
       <c r="A108" s="2" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>133</v>
@@ -9880,31 +9803,31 @@
         <v>428</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="L108" s="13" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="O108" s="15" t="s">
-        <v>1161</v>
+        <v>1135</v>
       </c>
       <c r="U108" s="22" t="s">
         <v>59</v>
       </c>
       <c r="X108" s="22" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
       <c r="Z108" s="22" t="s">
         <v>231</v>
@@ -10033,7 +9956,7 @@
     </row>
     <row r="111" spans="1:58">
       <c r="A111" s="2" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>262</v>
@@ -10045,22 +9968,22 @@
         <v>254</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="I111" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="L111" s="13" t="s">
         <v>486</v>
@@ -10077,7 +10000,7 @@
     </row>
     <row r="112" spans="1:58">
       <c r="A112" s="2" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>262</v>
@@ -10089,22 +10012,22 @@
         <v>428</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="L112" s="13" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>59</v>
@@ -10113,9 +10036,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:56">
+    <row r="113" spans="1:58">
       <c r="A113" s="2" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>262</v>
@@ -10127,22 +10050,22 @@
         <v>254</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>87</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="L113" s="13" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="N113" s="14" t="s">
         <v>169</v>
@@ -10157,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:56">
+    <row r="114" spans="1:58">
       <c r="A114" s="2" t="s">
         <v>499</v>
       </c>
@@ -10177,10 +10100,10 @@
         <v>501</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="I114" s="22" t="s">
         <v>66</v>
@@ -10198,10 +10121,10 @@
         <v>70</v>
       </c>
       <c r="P114" s="22" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="S114" s="22" t="s">
         <v>565</v>
@@ -10210,195 +10133,189 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:56">
+    <row r="115" spans="1:58">
       <c r="A115" s="2" t="s">
-        <v>691</v>
+        <v>574</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>686</v>
+        <v>428</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>692</v>
+        <v>575</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>694</v>
+        <v>576</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>704</v>
       </c>
       <c r="I115" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J115" s="22" t="s">
-        <v>695</v>
-      </c>
       <c r="K115" s="12" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>697</v>
+        <v>245</v>
       </c>
       <c r="N115" s="14" t="s">
-        <v>698</v>
+        <v>409</v>
       </c>
       <c r="O115" s="15" t="s">
         <v>96</v>
       </c>
       <c r="P115" s="22" t="s">
-        <v>699</v>
+        <v>582</v>
       </c>
       <c r="R115" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="S115" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="T115" s="22" t="s">
-        <v>70</v>
+        <v>583</v>
       </c>
       <c r="X115" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="116" spans="1:56">
+      <c r="AI115" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ115" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:58">
       <c r="A116" s="2" t="s">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>686</v>
+        <v>254</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>703</v>
+        <v>352</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>704</v>
+        <v>732</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>733</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J116" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="K116" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="L116" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="N116" s="22" t="s">
-        <v>707</v>
+      <c r="K116" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="L116" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="N116" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="O116" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="P116" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="R116" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="BA116" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB116" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:56">
+      <c r="P116" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL116" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58">
       <c r="A117" s="2" t="s">
-        <v>574</v>
+        <v>753</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>428</v>
+        <v>61</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>575</v>
+        <v>754</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>730</v>
+        <v>755</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>757</v>
       </c>
       <c r="I117" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="L117" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N117" s="14" t="s">
-        <v>409</v>
+        <v>759</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="O117" s="15" t="s">
         <v>96</v>
       </c>
       <c r="P117" s="22" t="s">
-        <v>582</v>
+        <v>760</v>
       </c>
       <c r="R117" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="X117" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI117" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ117" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:56">
+        <v>761</v>
+      </c>
+      <c r="S117" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="AV117" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58">
       <c r="A118" s="2" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>60</v>
+        <v>768</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>352</v>
+        <v>769</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>759</v>
+        <v>771</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>772</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="L118" s="13" t="s">
-        <v>468</v>
+        <v>311</v>
       </c>
       <c r="N118" s="14" t="s">
         <v>69</v>
@@ -10406,125 +10323,119 @@
       <c r="O118" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="P118" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL118" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:56">
+      <c r="P118" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="R118" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="S118" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="X118" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD118" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="119" spans="1:58">
       <c r="A119" s="2" t="s">
-        <v>779</v>
+        <v>684</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>782</v>
+        <v>686</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>687</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="I119" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="I119" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="J119" s="22" t="s">
+        <v>689</v>
+      </c>
       <c r="K119" s="12" t="s">
-        <v>784</v>
+        <v>690</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="N119" s="22" t="s">
-        <v>69</v>
+        <v>192</v>
+      </c>
+      <c r="N119" s="14" t="s">
+        <v>691</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P119" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="R119" s="22" t="s">
-        <v>787</v>
-      </c>
-      <c r="S119" s="22" t="s">
-        <v>788</v>
-      </c>
-      <c r="AV119" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:56">
+        <v>133</v>
+      </c>
+      <c r="Z119" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA119" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:58">
       <c r="A120" s="2" t="s">
-        <v>793</v>
+        <v>692</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>794</v>
+        <v>120</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>428</v>
+        <v>197</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>795</v>
+        <v>693</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>796</v>
+        <v>694</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="H120" s="22" t="s">
-        <v>798</v>
+        <v>695</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>799</v>
+        <v>696</v>
       </c>
       <c r="L120" s="13" t="s">
-        <v>311</v>
+        <v>697</v>
       </c>
       <c r="N120" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O120" s="15" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="P120" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="R120" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="X120" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD120" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="121" spans="1:56">
+        <v>208</v>
+      </c>
+      <c r="Z120" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58">
       <c r="A121" s="2" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>262</v>
@@ -10533,233 +10444,251 @@
         <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>678</v>
+        <v>197</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>679</v>
+        <v>558</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="J121" s="11" t="s">
-        <v>681</v>
+        <v>559</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>683</v>
+        <v>311</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>684</v>
+        <v>69</v>
       </c>
       <c r="O121" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P121" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:56">
+        <v>700</v>
+      </c>
+      <c r="R121" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="S121" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="X121" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD121" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:58">
       <c r="A122" s="2" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>713</v>
+        <v>736</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>737</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J122" s="22" t="s">
-        <v>715</v>
-      </c>
       <c r="K122" s="12" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="L122" s="13" t="s">
-        <v>192</v>
+        <v>486</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>717</v>
+        <v>69</v>
       </c>
       <c r="O122" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z122" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA122" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" spans="1:56">
+        <v>262</v>
+      </c>
+      <c r="P122" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK122" s="21">
+        <v>4</v>
+      </c>
+      <c r="AM122" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:58">
       <c r="A123" s="2" t="s">
-        <v>718</v>
+        <v>410</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>719</v>
+        <v>411</v>
       </c>
       <c r="F123" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="J123" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="L123" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="N123" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="O123" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="U123" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="X123" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI123" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ123" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58">
+      <c r="A124" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K123" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="L123" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="N123" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O123" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="P123" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z123" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:56">
-      <c r="A124" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>558</v>
+        <v>721</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G124" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H124" s="22" t="s">
         <v>724</v>
       </c>
       <c r="I124" s="22" t="s">
         <v>66</v>
       </c>
+      <c r="J124" s="22" t="s">
+        <v>725</v>
+      </c>
       <c r="K124" s="12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L124" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="N124" s="14" t="s">
-        <v>69</v>
+        <v>623</v>
+      </c>
+      <c r="N124" s="22" t="s">
+        <v>618</v>
       </c>
       <c r="O124" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="P124" s="22" t="s">
-        <v>726</v>
-      </c>
-      <c r="R124" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="S124" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="X124" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD124" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="125" spans="1:56">
+        <v>231</v>
+      </c>
+      <c r="AJ124" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK124" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58">
       <c r="A125" s="2" t="s">
-        <v>761</v>
+        <v>527</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>747</v>
+        <v>528</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="G125" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>763</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="I125" s="10" t="s">
-        <v>66</v>
+      <c r="I125" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>765</v>
+        <v>533</v>
       </c>
       <c r="L125" s="13" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="N125" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P125" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK125" s="21">
-        <v>4</v>
-      </c>
-      <c r="AM125" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:56">
+        <v>231</v>
+      </c>
+      <c r="P125" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q125" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="AJ125" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:58">
       <c r="A126" s="2" t="s">
-        <v>410</v>
+        <v>1137</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>262</v>
@@ -10768,495 +10697,483 @@
         <v>81</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>411</v>
+        <v>1138</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>412</v>
+        <v>707</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="J126" s="22" t="s">
-        <v>833</v>
+        <v>1139</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>416</v>
+        <v>1130</v>
       </c>
       <c r="L126" s="13" t="s">
-        <v>834</v>
+        <v>1130</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>347</v>
+        <v>1131</v>
       </c>
       <c r="O126" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="U126" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="X126" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z126" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL126" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="X126" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI126" s="21">
-        <v>2</v>
-      </c>
-      <c r="AJ126" s="22" t="s">
+      <c r="BF126" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:56">
+    <row r="127" spans="1:58">
       <c r="A127" s="2" t="s">
-        <v>1258</v>
+        <v>740</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>686</v>
+        <v>518</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>1259</v>
+        <v>741</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>1260</v>
+        <v>742</v>
+      </c>
+      <c r="I127" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="J127" s="22" t="s">
-        <v>1261</v>
+        <v>743</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>1262</v>
+        <v>744</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>1262</v>
+        <v>168</v>
       </c>
       <c r="N127" s="14" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="O127" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="X127" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="P127" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="R127" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="S127" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ127" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="Z127" s="22" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:56">
+      <c r="AK127" s="21">
+        <v>14</v>
+      </c>
+      <c r="AM127" s="21">
+        <v>1</v>
+      </c>
+      <c r="BD127" s="22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58">
       <c r="A128" s="2" t="s">
-        <v>746</v>
+        <v>1165</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>747</v>
+        <v>1166</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>748</v>
+        <v>1167</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="H128" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="I128" s="22" t="s">
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="J128" s="22" t="s">
-        <v>751</v>
+        <v>1168</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>752</v>
+        <v>1169</v>
       </c>
       <c r="L128" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="N128" s="22" t="s">
-        <v>618</v>
+        <v>1170</v>
+      </c>
+      <c r="N128" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="O128" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ128" s="22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AJ128" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL128" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AY128" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AK128" s="21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:58">
+      <c r="BE128" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:56">
       <c r="A129" s="2" t="s">
-        <v>527</v>
+        <v>1283</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>304</v>
+        <v>768</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>528</v>
+        <v>1284</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>529</v>
+        <v>1285</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="H129" s="22" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L129" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N129" s="14" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O129" s="15" t="s">
+        <v>1199</v>
+      </c>
+      <c r="P129" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="R129" s="22" t="s">
+        <v>1295</v>
+      </c>
+      <c r="U129" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="X129" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z129" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI129" s="21">
+        <v>6</v>
+      </c>
+      <c r="AJ129" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK129" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:56">
+      <c r="A130" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="I129" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K129" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="L129" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="N129" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O129" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P129" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="Q129" s="22" t="s">
-        <v>792</v>
-      </c>
-      <c r="AJ129" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:58">
-      <c r="A130" s="2" t="s">
-        <v>1163</v>
-      </c>
       <c r="B130" s="3" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>428</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>1164</v>
+        <v>721</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>1165</v>
+        <v>791</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="I130" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>1156</v>
+        <v>793</v>
       </c>
       <c r="L130" s="13" t="s">
-        <v>1156</v>
+        <v>793</v>
       </c>
       <c r="N130" s="14" t="s">
-        <v>1157</v>
+        <v>794</v>
       </c>
       <c r="O130" s="15" t="s">
-        <v>320</v>
+        <v>59</v>
+      </c>
+      <c r="S130" s="22" t="s">
+        <v>582</v>
       </c>
       <c r="X130" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z130" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL130" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF130" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:56">
       <c r="A131" s="2" t="s">
-        <v>685</v>
+        <v>427</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>686</v>
+        <v>428</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>687</v>
+        <v>429</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="J131" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>690</v>
+        <v>430</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="I131" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K131" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="N131" s="14" t="s">
-        <v>684</v>
+        <v>311</v>
+      </c>
+      <c r="N131" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="O131" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="P131" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="T131" s="22" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="X131" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="132" spans="1:58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:56">
       <c r="A132" s="2" t="s">
-        <v>766</v>
+        <v>845</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>518</v>
+        <v>61</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>767</v>
+        <v>846</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="I132" s="22" t="s">
-        <v>66</v>
+        <v>847</v>
       </c>
       <c r="J132" s="22" t="s">
-        <v>769</v>
+        <v>252</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>770</v>
+        <v>848</v>
       </c>
       <c r="L132" s="13" t="s">
-        <v>168</v>
+        <v>849</v>
       </c>
       <c r="N132" s="14" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="O132" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="P132" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="R132" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="S132" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="AJ132" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK132" s="21">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="AM132" s="21">
         <v>1</v>
       </c>
-      <c r="BD132" s="22" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="133" spans="1:58">
+    </row>
+    <row r="133" spans="1:56">
       <c r="A133" s="2" t="s">
-        <v>1191</v>
+        <v>527</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>1192</v>
+        <v>528</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="J133" s="22" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K133" s="12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L133" s="13" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N133" s="14" t="s">
-        <v>91</v>
+        <v>529</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="I133" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K133" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="L133" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="N133" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="O133" s="15" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AJ133" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AL133" s="20" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AY133" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="BE133" s="22" t="s">
+      <c r="P133" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q133" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R133" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="AJ133" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:58">
+    <row r="134" spans="1:56">
       <c r="A134" s="2" t="s">
-        <v>1310</v>
+        <v>853</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>794</v>
+        <v>304</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>1311</v>
+        <v>854</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>1312</v>
+        <v>529</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>1321</v>
+        <v>855</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>1315</v>
+        <v>857</v>
       </c>
       <c r="L134" s="13" t="s">
-        <v>1315</v>
+        <v>849</v>
       </c>
       <c r="N134" s="14" t="s">
-        <v>1316</v>
+        <v>69</v>
       </c>
       <c r="O134" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P134" s="22" t="s">
-        <v>599</v>
+        <v>59</v>
       </c>
       <c r="R134" s="22" t="s">
-        <v>1322</v>
-      </c>
-      <c r="U134" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="X134" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z134" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI134" s="21">
-        <v>6</v>
-      </c>
-      <c r="AJ134" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK134" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:58">
+        <v>858</v>
+      </c>
+      <c r="AM134" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:56">
       <c r="A135" s="2" t="s">
-        <v>816</v>
+        <v>609</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>428</v>
+        <v>254</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>747</v>
+        <v>610</v>
       </c>
       <c r="F135" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="I135" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J135" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="N135" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O135" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM135" s="21">
+        <v>1</v>
+      </c>
+      <c r="BD135" s="22" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="136" spans="1:56">
+      <c r="A136" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>818</v>
-      </c>
-      <c r="I135" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K135" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="L135" s="13" t="s">
-        <v>819</v>
-      </c>
-      <c r="N135" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="O135" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="S135" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="X135" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:58">
-      <c r="A136" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>92</v>
@@ -11265,224 +11182,245 @@
         <v>81</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>428</v>
+        <v>254</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>429</v>
+        <v>818</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>835</v>
+        <v>819</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>821</v>
       </c>
       <c r="I136" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K136" s="22" t="s">
-        <v>311</v>
+      <c r="K136" s="12" t="s">
+        <v>822</v>
       </c>
       <c r="L136" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="N136" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="N136" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O136" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P136" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL136" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="X136" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="137" spans="1:58">
+      <c r="AM136" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:56">
       <c r="A137" s="2" t="s">
-        <v>871</v>
+        <v>828</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>872</v>
+        <v>614</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>873</v>
+        <v>829</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="I137" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>252</v>
+        <v>832</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>69</v>
+        <v>835</v>
       </c>
       <c r="O137" s="15" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="S137" s="22" t="s">
+        <v>836</v>
       </c>
       <c r="AM137" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:56">
       <c r="A138" s="2" t="s">
-        <v>527</v>
+        <v>767</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>304</v>
+        <v>768</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>528</v>
+        <v>769</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>876</v>
-      </c>
-      <c r="I138" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K138" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="L138" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="N138" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J138" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="K138" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="N138" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O138" s="15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P138" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q138" s="22" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="R138" s="22" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="S138" s="22" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="AJ138" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="139" spans="1:58">
+      <c r="AM138" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:56">
       <c r="A139" s="2" t="s">
-        <v>879</v>
+        <v>706</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>880</v>
+        <v>707</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>529</v>
+        <v>707</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="H139" s="22" t="s">
-        <v>882</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>87</v>
+        <v>810</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>883</v>
+        <v>710</v>
       </c>
       <c r="L139" s="13" t="s">
-        <v>875</v>
+        <v>711</v>
       </c>
       <c r="N139" s="14" t="s">
-        <v>69</v>
+        <v>712</v>
       </c>
       <c r="O139" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P139" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="R139" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="S139" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="AI139" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ139" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R139" s="22" t="s">
-        <v>884</v>
-      </c>
-      <c r="AM139" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:58">
+    </row>
+    <row r="140" spans="1:56">
       <c r="A140" s="2" t="s">
-        <v>609</v>
+        <v>870</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>610</v>
+        <v>186</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="I140" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="I140" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J140" s="22" t="s">
-        <v>840</v>
-      </c>
       <c r="K140" s="12" t="s">
-        <v>612</v>
+        <v>872</v>
       </c>
       <c r="L140" s="13" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="N140" s="14" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="O140" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM140" s="21">
-        <v>1</v>
-      </c>
-      <c r="BD140" s="22" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="141" spans="1:58">
+        <v>96</v>
+      </c>
+      <c r="X140" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:56">
       <c r="A141" s="2" t="s">
-        <v>843</v>
+        <v>1061</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>92</v>
@@ -11491,245 +11429,236 @@
         <v>81</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>844</v>
+        <v>1062</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="H141" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="I141" s="22" t="s">
-        <v>66</v>
+        <v>1063</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>848</v>
+        <v>1064</v>
       </c>
       <c r="L141" s="13" t="s">
-        <v>849</v>
+        <v>1065</v>
       </c>
       <c r="N141" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O141" s="15" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="P141" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AL141" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM141" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:58">
+      <c r="X141" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:56">
       <c r="A142" s="2" t="s">
-        <v>854</v>
+        <v>1086</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>614</v>
+        <v>1087</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="H142" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="I142" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J142" s="22" t="s">
-        <v>858</v>
+        <v>1088</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>859</v>
+        <v>1089</v>
       </c>
       <c r="L142" s="13" t="s">
-        <v>860</v>
+        <v>1090</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>861</v>
+        <v>169</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S142" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="AM142" s="21">
+        <v>96</v>
+      </c>
+      <c r="Z142" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK142" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:58">
+    <row r="143" spans="1:56">
       <c r="A143" s="2" t="s">
-        <v>793</v>
+        <v>679</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>794</v>
+        <v>120</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>428</v>
+        <v>678</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>795</v>
+        <v>680</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="I143" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="I143" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J143" s="22" t="s">
-        <v>886</v>
+      <c r="J143" s="11" t="s">
+        <v>682</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>887</v>
+        <v>777</v>
       </c>
       <c r="L143" s="13" t="s">
-        <v>311</v>
+        <v>778</v>
       </c>
       <c r="N143" s="14" t="s">
-        <v>69</v>
+        <v>683</v>
       </c>
       <c r="O143" s="15" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="P143" s="22" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="R143" s="22" t="s">
-        <v>888</v>
+        <v>779</v>
       </c>
       <c r="S143" s="22" t="s">
-        <v>889</v>
-      </c>
-      <c r="AJ143" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="T143" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AM143" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:58">
+      <c r="X143" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:56">
       <c r="A144" s="2" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>733</v>
+        <v>804</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>836</v>
+        <v>609</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="L144" s="13" t="s">
-        <v>737</v>
+        <v>486</v>
       </c>
       <c r="N144" s="14" t="s">
-        <v>738</v>
+        <v>69</v>
       </c>
       <c r="O144" s="15" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="P144" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="R144" s="17" t="s">
-        <v>838</v>
+        <v>208</v>
       </c>
       <c r="S144" s="22" t="s">
-        <v>839</v>
-      </c>
-      <c r="AI144" s="21">
-        <v>2</v>
-      </c>
-      <c r="AJ144" s="22" t="s">
-        <v>59</v>
+        <v>806</v>
+      </c>
+      <c r="AL144" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:58">
       <c r="A145" s="2" t="s">
-        <v>896</v>
+        <v>740</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>109</v>
+        <v>518</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>186</v>
+        <v>741</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="I145" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="H145" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="I145" s="22" t="s">
         <v>66</v>
       </c>
+      <c r="J145" s="22" t="s">
+        <v>743</v>
+      </c>
       <c r="K145" s="12" t="s">
-        <v>898</v>
+        <v>744</v>
       </c>
       <c r="L145" s="13" t="s">
-        <v>899</v>
+        <v>168</v>
       </c>
       <c r="N145" s="14" t="s">
         <v>169</v>
       </c>
       <c r="O145" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="X145" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="P145" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="R145" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="S145" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ145" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK145" s="21">
+        <v>4</v>
+      </c>
+      <c r="AM145" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:58">
       <c r="A146" s="2" t="s">
-        <v>1087</v>
+        <v>1265</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>92</v>
@@ -11738,74 +11667,101 @@
         <v>81</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>428</v>
+        <v>254</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>1088</v>
+        <v>1266</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>1089</v>
+        <v>205</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="I146" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J146" s="22" t="s">
+        <v>1267</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>1090</v>
+        <v>1268</v>
       </c>
       <c r="L146" s="13" t="s">
-        <v>1091</v>
+        <v>1130</v>
       </c>
       <c r="N146" s="14" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="O146" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P146" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="X146" s="22" t="s">
-        <v>96</v>
+        <v>182</v>
+      </c>
+      <c r="AJ146" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL146" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF146" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:58">
       <c r="A147" s="2" t="s">
-        <v>1112</v>
+        <v>453</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>1113</v>
+        <v>454</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>1114</v>
+        <v>455</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="I147" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>1115</v>
+        <v>457</v>
       </c>
       <c r="L147" s="13" t="s">
-        <v>1116</v>
+        <v>458</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="O147" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z147" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P147" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI147" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ147" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK147" s="21">
+        <v>1</v>
+      </c>
+      <c r="BE147" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="AK147" s="21">
-        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:58">
       <c r="A148" s="2" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>92</v>
@@ -11814,78 +11770,81 @@
         <v>120</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>686</v>
+        <v>249</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>693</v>
+        <v>797</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="I148" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J148" s="11" t="s">
-        <v>695</v>
+        <v>798</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J148" s="22" t="s">
+        <v>799</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="L148" s="13" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="N148" s="14" t="s">
-        <v>698</v>
+        <v>69</v>
       </c>
       <c r="O148" s="15" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="R148" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="S148" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="T148" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL148" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM148" s="21">
+        <v>6</v>
+      </c>
+      <c r="BE148" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="X148" s="22" t="s">
-        <v>96</v>
+      <c r="BF148" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:58">
       <c r="A149" s="2" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>609</v>
+        <v>839</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>840</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="L149" s="13" t="s">
         <v>486</v>
@@ -11894,183 +11853,195 @@
         <v>69</v>
       </c>
       <c r="O149" s="15" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="P149" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="S149" s="22" t="s">
-        <v>832</v>
-      </c>
-      <c r="AL149" s="22" t="s">
-        <v>133</v>
+        <v>842</v>
+      </c>
+      <c r="R149" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="AK149" s="21">
+        <v>7</v>
+      </c>
+      <c r="AM149" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:58">
       <c r="A150" s="2" t="s">
-        <v>766</v>
+        <v>1142</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>767</v>
+        <v>1143</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="H150" s="22" t="s">
-        <v>870</v>
-      </c>
-      <c r="I150" s="22" t="s">
-        <v>66</v>
+        <v>1144</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>1146</v>
       </c>
       <c r="J150" s="22" t="s">
-        <v>769</v>
+        <v>1147</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>770</v>
+        <v>1130</v>
       </c>
       <c r="L150" s="13" t="s">
-        <v>168</v>
+        <v>1130</v>
       </c>
       <c r="N150" s="14" t="s">
-        <v>169</v>
+        <v>1131</v>
       </c>
       <c r="O150" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P150" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="R150" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="S150" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="AJ150" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK150" s="21">
-        <v>4</v>
-      </c>
-      <c r="AM150" s="21">
-        <v>1</v>
+        <v>960</v>
+      </c>
+      <c r="X150" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ150" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL150" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF150" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:58">
       <c r="A151" s="2" t="s">
-        <v>1292</v>
+        <v>864</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>1293</v>
+        <v>865</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>609</v>
+        <v>430</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>866</v>
       </c>
       <c r="I151" s="22" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J151" s="22" t="s">
-        <v>1294</v>
+        <v>867</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>1295</v>
+        <v>868</v>
       </c>
       <c r="L151" s="13" t="s">
-        <v>1156</v>
+        <v>355</v>
       </c>
       <c r="N151" s="14" t="s">
-        <v>91</v>
+        <v>788</v>
       </c>
       <c r="O151" s="15" t="s">
-        <v>182</v>
+        <v>426</v>
+      </c>
+      <c r="P151" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="X151" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF151" s="21">
+        <v>4</v>
       </c>
       <c r="AJ151" s="22" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="AL151" s="22" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="AM151" s="21">
+        <v>3</v>
       </c>
       <c r="BF151" s="22" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:58">
       <c r="A152" s="2" t="s">
-        <v>453</v>
+        <v>824</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>454</v>
+        <v>721</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>455</v>
+        <v>722</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>456</v>
+        <v>825</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>826</v>
       </c>
       <c r="I152" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>457</v>
+        <v>726</v>
       </c>
       <c r="L152" s="13" t="s">
-        <v>458</v>
+        <v>827</v>
       </c>
       <c r="N152" s="14" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="O152" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P152" s="22" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="AI152" s="21">
+        <v>14</v>
+      </c>
+      <c r="AJ152" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK152" s="21">
+        <v>15</v>
+      </c>
+      <c r="AM152" s="21">
+        <v>5</v>
+      </c>
+      <c r="AO152" s="21">
         <v>3</v>
       </c>
-      <c r="AJ152" s="22" t="s">
+      <c r="BE152" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="AK152" s="21">
-        <v>1</v>
-      </c>
-      <c r="BE152" s="22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:58">
       <c r="A153" s="2" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>92</v>
@@ -12079,160 +12050,142 @@
         <v>120</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>824</v>
-      </c>
-      <c r="I153" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="I153" s="22" t="s">
         <v>87</v>
       </c>
       <c r="J153" s="22" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="L153" s="13" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>69</v>
+        <v>788</v>
       </c>
       <c r="O153" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P153" s="22" t="s">
-        <v>208</v>
+        <v>765</v>
+      </c>
+      <c r="X153" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE153" s="21">
+        <v>6</v>
+      </c>
+      <c r="AJ153" s="22" t="s">
+        <v>418</v>
       </c>
       <c r="AL153" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM153" s="21">
-        <v>6</v>
-      </c>
-      <c r="BE153" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF153" s="22" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:58">
       <c r="A154" s="2" t="s">
-        <v>863</v>
+        <v>1016</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>864</v>
+        <v>1017</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="G154" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="H154" s="22" t="s">
-        <v>866</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>87</v>
+        <v>1018</v>
+      </c>
+      <c r="I154" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>867</v>
+        <v>1019</v>
       </c>
       <c r="L154" s="13" t="s">
-        <v>486</v>
+        <v>311</v>
       </c>
       <c r="N154" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O154" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P154" s="16" t="s">
-        <v>868</v>
-      </c>
-      <c r="R154" s="22" t="s">
-        <v>869</v>
-      </c>
-      <c r="AK154" s="21">
-        <v>7</v>
-      </c>
-      <c r="AM154" s="21">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="P154" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ154" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:58">
       <c r="A155" s="2" t="s">
-        <v>1168</v>
+        <v>979</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>428</v>
+        <v>61</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>1169</v>
+        <v>980</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J155" s="22" t="s">
-        <v>1173</v>
+        <v>981</v>
+      </c>
+      <c r="G155" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="I155" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>1156</v>
+        <v>984</v>
       </c>
       <c r="L155" s="13" t="s">
-        <v>1156</v>
+        <v>849</v>
       </c>
       <c r="N155" s="14" t="s">
-        <v>1157</v>
+        <v>69</v>
       </c>
       <c r="O155" s="15" t="s">
-        <v>986</v>
-      </c>
-      <c r="X155" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL155" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AJ155" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL155" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF155" s="22" t="s">
-        <v>133</v>
+      <c r="AM155" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:58">
       <c r="A156" s="2" t="s">
-        <v>890</v>
+        <v>1055</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>108</v>
@@ -12241,842 +12194,797 @@
         <v>109</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>891</v>
+        <v>1056</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="I156" s="22" t="s">
-        <v>202</v>
+        <v>1057</v>
       </c>
       <c r="J156" s="22" t="s">
-        <v>893</v>
+        <v>1058</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>894</v>
+        <v>1059</v>
       </c>
       <c r="L156" s="13" t="s">
-        <v>355</v>
+        <v>1060</v>
       </c>
       <c r="N156" s="14" t="s">
-        <v>814</v>
+        <v>69</v>
       </c>
       <c r="O156" s="15" t="s">
-        <v>426</v>
+        <v>141</v>
       </c>
       <c r="P156" s="22" t="s">
-        <v>895</v>
+        <v>208</v>
       </c>
       <c r="X156" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF156" s="21">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="AJ156" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL156" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM156" s="21">
-        <v>3</v>
-      </c>
-      <c r="BF156" s="22" t="s">
-        <v>96</v>
+        <v>70</v>
+      </c>
+      <c r="AK156" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:58">
       <c r="A157" s="2" t="s">
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>747</v>
+        <v>528</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>748</v>
+        <v>508</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>852</v>
+        <v>1021</v>
       </c>
       <c r="I157" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>752</v>
+        <v>1022</v>
       </c>
       <c r="L157" s="13" t="s">
-        <v>853</v>
+        <v>1023</v>
       </c>
       <c r="N157" s="14" t="s">
-        <v>618</v>
+        <v>69</v>
       </c>
       <c r="O157" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI157" s="21">
-        <v>14</v>
+        <v>279</v>
+      </c>
+      <c r="P157" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="R157" s="22" t="s">
+        <v>1024</v>
+      </c>
+      <c r="X157" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="AJ157" s="22" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="AK157" s="21">
-        <v>15</v>
-      </c>
-      <c r="AM157" s="21">
-        <v>5</v>
-      </c>
-      <c r="AO157" s="21">
         <v>3</v>
-      </c>
-      <c r="BE157" s="22" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:58">
       <c r="A158" s="2" t="s">
-        <v>807</v>
+        <v>1083</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>808</v>
+        <v>1084</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="I158" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J158" s="22" t="s">
-        <v>811</v>
+        <v>1085</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>812</v>
+        <v>730</v>
       </c>
       <c r="L158" s="13" t="s">
-        <v>813</v>
+        <v>730</v>
       </c>
       <c r="N158" s="14" t="s">
-        <v>814</v>
+        <v>169</v>
       </c>
       <c r="O158" s="15" t="s">
-        <v>791</v>
+        <v>59</v>
       </c>
       <c r="X158" s="22" t="s">
-        <v>815</v>
-      </c>
-      <c r="AE158" s="21">
-        <v>6</v>
-      </c>
-      <c r="AJ158" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL158" s="22" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:58">
       <c r="A159" s="2" t="s">
-        <v>1042</v>
+        <v>961</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>1043</v>
+        <v>962</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>1044</v>
+        <v>963</v>
+      </c>
+      <c r="H159" s="22" t="s">
+        <v>964</v>
       </c>
       <c r="I159" s="22" t="s">
         <v>202</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>1045</v>
+        <v>965</v>
       </c>
       <c r="L159" s="13" t="s">
-        <v>311</v>
+        <v>849</v>
       </c>
       <c r="N159" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O159" s="15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P159" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AJ159" s="22" t="s">
-        <v>59</v>
+      <c r="AM159" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV159" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:58">
       <c r="A160" s="2" t="s">
-        <v>1005</v>
+        <v>1108</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>1006</v>
+        <v>429</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G160" s="22" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H160" s="22" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I160" s="22" t="s">
-        <v>66</v>
+        <v>1109</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="L160" s="13" t="s">
-        <v>875</v>
+        <v>1111</v>
       </c>
       <c r="N160" s="14" t="s">
-        <v>69</v>
+        <v>1112</v>
       </c>
       <c r="O160" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL160" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="S160" s="22" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AJ160" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AM160" s="21">
-        <v>1</v>
+      <c r="AK160" s="21">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:58">
       <c r="A161" s="2" t="s">
-        <v>1081</v>
+        <v>966</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>1082</v>
+        <v>967</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J161" s="22" t="s">
-        <v>1084</v>
+        <v>968</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="H161" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="I161" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>1085</v>
+        <v>971</v>
       </c>
       <c r="L161" s="13" t="s">
-        <v>1086</v>
-      </c>
-      <c r="N161" s="14" t="s">
-        <v>69</v>
+        <v>972</v>
+      </c>
+      <c r="N161" s="22" t="s">
+        <v>973</v>
       </c>
       <c r="O161" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="P161" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="X161" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ161" s="22" t="s">
+      <c r="AL161" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AK161" s="21">
+      <c r="AM161" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN161" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:58">
       <c r="A162" s="2" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>528</v>
+        <v>1074</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I162" s="22" t="s">
-        <v>66</v>
+        <v>1075</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>1048</v>
+        <v>1069</v>
       </c>
       <c r="L162" s="13" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="N162" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O162" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="P162" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="R162" s="22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="X162" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AJ162" s="22" t="s">
-        <v>141</v>
+      <c r="AA162" s="21">
+        <v>3</v>
       </c>
       <c r="AK162" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:58">
       <c r="A163" s="2" t="s">
-        <v>1109</v>
+        <v>828</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>382</v>
+        <v>60</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>1110</v>
+        <v>614</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>1111</v>
+        <v>829</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="I163" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>756</v>
+        <v>833</v>
       </c>
       <c r="L163" s="13" t="s">
-        <v>756</v>
+        <v>930</v>
       </c>
       <c r="N163" s="14" t="s">
-        <v>169</v>
+        <v>931</v>
       </c>
       <c r="O163" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X163" s="22" t="s">
-        <v>59</v>
+        <v>173</v>
+      </c>
+      <c r="AJ163" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL163" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM163" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:58">
       <c r="A164" s="2" t="s">
-        <v>987</v>
+        <v>887</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>988</v>
+        <v>888</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="H164" s="22" t="s">
-        <v>990</v>
+        <v>889</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>890</v>
       </c>
       <c r="I164" s="22" t="s">
-        <v>202</v>
+        <v>891</v>
+      </c>
+      <c r="J164" s="22" t="s">
+        <v>892</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>991</v>
+        <v>893</v>
       </c>
       <c r="L164" s="13" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="N164" s="14" t="s">
-        <v>69</v>
+        <v>677</v>
       </c>
       <c r="O164" s="15" t="s">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="P164" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM164" s="21">
-        <v>1</v>
-      </c>
-      <c r="AV164" s="21">
-        <v>1</v>
+        <v>895</v>
+      </c>
+      <c r="R164" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="S164" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="AI164" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ164" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="BF164" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:58">
       <c r="A165" s="2" t="s">
-        <v>1134</v>
+        <v>1232</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>254</v>
+        <v>678</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>429</v>
+        <v>1233</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>1135</v>
+        <v>686</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J165" s="22" t="s">
+        <v>1234</v>
       </c>
       <c r="K165" s="12" t="s">
-        <v>1136</v>
+        <v>1235</v>
       </c>
       <c r="L165" s="13" t="s">
-        <v>1137</v>
+        <v>1235</v>
       </c>
       <c r="N165" s="14" t="s">
-        <v>1138</v>
+        <v>260</v>
       </c>
       <c r="O165" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="S165" s="22" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AJ165" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK165" s="21">
-        <v>2</v>
+        <v>1243</v>
+      </c>
+      <c r="X165" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z165" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:58">
       <c r="A166" s="2" t="s">
-        <v>992</v>
+        <v>1269</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>304</v>
+        <v>1270</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>61</v>
+        <v>1271</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>993</v>
+        <v>1272</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>994</v>
+        <v>1273</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="H166" s="22" t="s">
-        <v>996</v>
-      </c>
-      <c r="I166" s="22" t="s">
-        <v>87</v>
+        <v>1274</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>1275</v>
       </c>
       <c r="K166" s="12" t="s">
-        <v>997</v>
+        <v>1276</v>
       </c>
       <c r="L166" s="13" t="s">
-        <v>998</v>
-      </c>
-      <c r="N166" s="22" t="s">
-        <v>999</v>
+        <v>1276</v>
+      </c>
+      <c r="N166" s="14" t="s">
+        <v>489</v>
       </c>
       <c r="O166" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL166" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM166" s="21">
+        <v>582</v>
+      </c>
+      <c r="AF166" s="21">
+        <v>8</v>
+      </c>
+      <c r="AR166" s="21">
+        <v>15</v>
+      </c>
+      <c r="AS166" s="21">
         <v>1</v>
       </c>
-      <c r="AN166" s="21">
-        <v>1</v>
+      <c r="AX166" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ166" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:58">
       <c r="A167" s="2" t="s">
-        <v>1099</v>
+        <v>1076</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>1100</v>
+        <v>1077</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="L167" s="13" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="N167" s="14" t="s">
-        <v>69</v>
+        <v>664</v>
       </c>
       <c r="O167" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA167" s="21">
-        <v>3</v>
+        <v>478</v>
+      </c>
+      <c r="X167" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="AK167" s="21">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AM167" s="21">
+        <v>16</v>
+      </c>
+      <c r="AO167" s="21">
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:58">
       <c r="A168" s="2" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>106</v>
+        <v>875</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>614</v>
+        <v>876</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="G168" s="22" t="s">
-        <v>955</v>
+        <v>878</v>
       </c>
       <c r="I168" s="22" t="s">
-        <v>66</v>
+        <v>87</v>
+      </c>
+      <c r="J168" s="22" t="s">
+        <v>879</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="L168" s="13" t="s">
-        <v>956</v>
+        <v>311</v>
       </c>
       <c r="N168" s="14" t="s">
-        <v>957</v>
+        <v>69</v>
       </c>
       <c r="O168" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ168" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL168" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM168" s="21">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="Z168" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:58">
       <c r="A169" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>106</v>
+        <v>875</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>914</v>
+        <v>791</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>916</v>
+        <v>925</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>926</v>
       </c>
       <c r="I169" s="22" t="s">
-        <v>917</v>
-      </c>
-      <c r="J169" s="22" t="s">
-        <v>918</v>
+        <v>66</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="L169" s="13" t="s">
-        <v>920</v>
+        <v>339</v>
       </c>
       <c r="N169" s="14" t="s">
-        <v>684</v>
+        <v>69</v>
       </c>
       <c r="O169" s="15" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="P169" s="22" t="s">
-        <v>921</v>
-      </c>
-      <c r="R169" s="22" t="s">
-        <v>922</v>
-      </c>
-      <c r="S169" s="22" t="s">
-        <v>923</v>
-      </c>
-      <c r="AI169" s="21">
-        <v>2</v>
-      </c>
-      <c r="AJ169" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF169" s="22" t="s">
-        <v>59</v>
+        <v>208</v>
+      </c>
+      <c r="BD169" s="22" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="170" spans="1:58">
       <c r="A170" s="2" t="s">
-        <v>1258</v>
+        <v>990</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>106</v>
+        <v>875</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>686</v>
+        <v>305</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>1259</v>
+        <v>991</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J170" s="22" t="s">
-        <v>1261</v>
+        <v>992</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="I170" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>1262</v>
+        <v>849</v>
       </c>
       <c r="L170" s="13" t="s">
-        <v>1262</v>
+        <v>849</v>
       </c>
       <c r="N170" s="14" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="O170" s="15" t="s">
-        <v>1270</v>
-      </c>
-      <c r="X170" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z170" s="22" t="s">
-        <v>231</v>
+        <v>59</v>
+      </c>
+      <c r="AL170" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:58">
       <c r="A171" s="2" t="s">
-        <v>1296</v>
+        <v>1003</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>106</v>
+        <v>875</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1297</v>
+        <v>304</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>1298</v>
+        <v>305</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>1299</v>
+        <v>1004</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>1301</v>
+        <v>1005</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I171" s="22" t="s">
+        <v>1008</v>
       </c>
       <c r="J171" s="22" t="s">
-        <v>1302</v>
+        <v>1009</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>1303</v>
+        <v>1010</v>
       </c>
       <c r="L171" s="13" t="s">
-        <v>1303</v>
+        <v>1011</v>
       </c>
       <c r="N171" s="14" t="s">
-        <v>489</v>
+        <v>105</v>
       </c>
       <c r="O171" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="AF171" s="21">
-        <v>8</v>
-      </c>
-      <c r="AR171" s="21">
-        <v>15</v>
-      </c>
-      <c r="AS171" s="21">
+        <v>59</v>
+      </c>
+      <c r="P171" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM171" s="21">
         <v>1</v>
-      </c>
-      <c r="AX171" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ171" s="22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:58">
       <c r="A172" s="2" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>106</v>
+        <v>875</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>121</v>
+        <v>305</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="K172" s="12" t="s">
-        <v>1105</v>
+        <v>849</v>
       </c>
       <c r="L172" s="13" t="s">
-        <v>1105</v>
+        <v>849</v>
       </c>
       <c r="N172" s="14" t="s">
-        <v>664</v>
+        <v>69</v>
       </c>
       <c r="O172" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="X172" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK172" s="21">
-        <v>6</v>
-      </c>
-      <c r="AM172" s="21">
-        <v>16</v>
-      </c>
-      <c r="AO172" s="21">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="P172" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL172" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:58">
       <c r="A173" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>902</v>
+        <v>234</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I173" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J173" s="22" t="s">
-        <v>905</v>
-      </c>
       <c r="K173" s="12" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="L173" s="13" t="s">
         <v>311</v>
@@ -13085,106 +12993,118 @@
         <v>69</v>
       </c>
       <c r="O173" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P173" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="R173" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="AJ173" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z173" s="22" t="s">
-        <v>59</v>
+      <c r="BD173" s="22" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="174" spans="1:58">
       <c r="A174" s="2" t="s">
-        <v>949</v>
+        <v>427</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>817</v>
+        <v>429</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="G174" s="22" t="s">
-        <v>951</v>
+        <v>430</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>916</v>
       </c>
       <c r="H174" s="22" t="s">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="I174" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K174" s="12" t="s">
-        <v>953</v>
+        <v>311</v>
       </c>
       <c r="L174" s="13" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="N174" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O174" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="X174" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="P174" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD174" s="22" t="s">
-        <v>954</v>
+      <c r="AJ174" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:58">
       <c r="A175" s="2" t="s">
-        <v>1016</v>
+        <v>918</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>1017</v>
+        <v>919</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>1018</v>
+        <v>920</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>1019</v>
+        <v>921</v>
       </c>
       <c r="I175" s="22" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="K175" s="12" t="s">
-        <v>875</v>
+        <v>922</v>
       </c>
       <c r="L175" s="13" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="N175" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O175" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL175" s="22" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="AM175" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN175" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:58">
       <c r="A176" s="2" t="s">
-        <v>1029</v>
+        <v>1066</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>304</v>
@@ -13193,597 +13113,597 @@
         <v>305</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>1030</v>
+        <v>1067</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H176" s="22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I176" s="22" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J176" s="22" t="s">
-        <v>1035</v>
+        <v>1068</v>
       </c>
       <c r="K176" s="12" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
       <c r="L176" s="13" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
       <c r="N176" s="14" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="O176" s="15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P176" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AM176" s="21">
+      <c r="X176" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK176" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:58">
       <c r="A177" s="2" t="s">
-        <v>1106</v>
+        <v>974</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>1107</v>
+        <v>234</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>1108</v>
+        <v>975</v>
+      </c>
+      <c r="J177" s="22" t="s">
+        <v>976</v>
       </c>
       <c r="K177" s="12" t="s">
-        <v>875</v>
+        <v>977</v>
       </c>
       <c r="L177" s="13" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="N177" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O177" s="15" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="P177" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AL177" s="22" t="s">
-        <v>59</v>
+      <c r="AM177" s="21">
+        <v>2</v>
+      </c>
+      <c r="BD177" s="22" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="178" spans="1:58">
       <c r="A178" s="2" t="s">
-        <v>924</v>
+        <v>853</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>121</v>
+        <v>305</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>234</v>
+        <v>854</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>926</v>
+        <v>529</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="H178" s="22" t="s">
+        <v>986</v>
       </c>
       <c r="I178" s="22" t="s">
         <v>87</v>
       </c>
       <c r="K178" s="12" t="s">
-        <v>927</v>
+        <v>987</v>
       </c>
       <c r="L178" s="13" t="s">
-        <v>311</v>
+        <v>849</v>
       </c>
       <c r="N178" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O178" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P178" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="R178" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="S178" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="X178" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL178" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="P178" s="22" t="s">
-        <v>928</v>
-      </c>
-      <c r="R178" s="22" t="s">
-        <v>929</v>
-      </c>
-      <c r="AJ178" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD178" s="22" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="179" spans="1:58">
       <c r="A179" s="2" t="s">
-        <v>427</v>
+        <v>998</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>429</v>
+        <v>999</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>942</v>
+        <v>1000</v>
+      </c>
+      <c r="G179" s="22" t="s">
+        <v>1001</v>
       </c>
       <c r="H179" s="22" t="s">
-        <v>943</v>
+        <v>1002</v>
       </c>
       <c r="I179" s="22" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K179" s="12" t="s">
-        <v>311</v>
+        <v>759</v>
       </c>
       <c r="L179" s="13" t="s">
-        <v>311</v>
+        <v>759</v>
       </c>
       <c r="N179" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O179" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X179" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ179" s="22" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="AL179" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM179" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:58">
       <c r="A180" s="2" t="s">
-        <v>944</v>
+        <v>1091</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>945</v>
+        <v>1092</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="I180" s="22" t="s">
-        <v>202</v>
+        <v>1093</v>
       </c>
       <c r="K180" s="12" t="s">
-        <v>948</v>
+        <v>1094</v>
       </c>
       <c r="L180" s="13" t="s">
-        <v>875</v>
+        <v>1095</v>
       </c>
       <c r="N180" s="14" t="s">
-        <v>69</v>
+        <v>1096</v>
       </c>
       <c r="O180" s="15" t="s">
-        <v>70</v>
+        <v>96</v>
+      </c>
+      <c r="AK180" s="21">
+        <v>1</v>
       </c>
       <c r="AM180" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN180" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:58">
       <c r="A181" s="2" t="s">
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>1093</v>
+        <v>143</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K181" s="12" t="s">
-        <v>1095</v>
+        <v>933</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="I181" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="K181" s="22" t="s">
+        <v>936</v>
       </c>
       <c r="L181" s="13" t="s">
-        <v>1095</v>
+        <v>937</v>
       </c>
       <c r="N181" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O181" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P181" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="P181" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="X181" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="AK181" s="21">
         <v>1</v>
       </c>
+      <c r="AM181" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="182" spans="1:58">
       <c r="A182" s="2" t="s">
-        <v>1000</v>
+        <v>767</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>304</v>
+        <v>768</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>61</v>
+        <v>428</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>234</v>
+        <v>769</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J182" s="22" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K182" s="12" t="s">
-        <v>1003</v>
+        <v>770</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I182" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K182" s="22" t="s">
+        <v>861</v>
       </c>
       <c r="L182" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="N182" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="N182" s="22" t="s">
         <v>69</v>
       </c>
       <c r="O182" s="15" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="P182" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM182" s="21">
-        <v>2</v>
-      </c>
-      <c r="BD182" s="22" t="s">
-        <v>1004</v>
+        <v>1013</v>
+      </c>
+      <c r="R182" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="S182" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="X182" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ182" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL182" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:58">
       <c r="A183" s="2" t="s">
-        <v>879</v>
+        <v>1148</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>880</v>
+        <v>1149</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>529</v>
+        <v>1144</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H183" s="22" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I183" s="22" t="s">
-        <v>87</v>
+        <v>1150</v>
+      </c>
+      <c r="J183" s="22" t="s">
+        <v>1151</v>
       </c>
       <c r="K183" s="12" t="s">
-        <v>1013</v>
+        <v>1130</v>
       </c>
       <c r="L183" s="13" t="s">
-        <v>875</v>
+        <v>1130</v>
       </c>
       <c r="N183" s="14" t="s">
-        <v>69</v>
+        <v>1131</v>
       </c>
       <c r="O183" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P183" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="R183" s="22" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S183" s="22" t="s">
-        <v>1015</v>
+        <v>141</v>
       </c>
       <c r="X183" s="22" t="s">
         <v>59</v>
       </c>
+      <c r="AJ183" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="AL183" s="22" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="BF183" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:58">
       <c r="A184" s="2" t="s">
-        <v>1024</v>
+        <v>1230</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>305</v>
+        <v>518</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>1025</v>
+        <v>1231</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>1026</v>
+        <v>954</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H184" s="22" t="s">
-        <v>1028</v>
+        <v>912</v>
       </c>
       <c r="I184" s="22" t="s">
-        <v>87</v>
+        <v>944</v>
       </c>
       <c r="K184" s="12" t="s">
-        <v>785</v>
+        <v>719</v>
       </c>
       <c r="L184" s="13" t="s">
-        <v>785</v>
+        <v>719</v>
       </c>
       <c r="N184" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O184" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL184" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM184" s="21">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="AK184" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:58">
       <c r="A185" s="2" t="s">
-        <v>1117</v>
+        <v>940</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>254</v>
+        <v>518</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>1118</v>
+        <v>941</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>1119</v>
+        <v>631</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="I185" s="22" t="s">
+        <v>944</v>
       </c>
       <c r="K185" s="12" t="s">
-        <v>1120</v>
+        <v>945</v>
       </c>
       <c r="L185" s="13" t="s">
-        <v>1121</v>
+        <v>245</v>
       </c>
       <c r="N185" s="14" t="s">
-        <v>1122</v>
+        <v>105</v>
       </c>
       <c r="O185" s="15" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="AK185" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM185" s="21">
         <v>2</v>
+      </c>
+      <c r="AV185" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:58">
       <c r="A186" s="2" t="s">
-        <v>958</v>
+        <v>1161</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>143</v>
+        <v>1162</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="I186" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J186" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="K186" s="22" t="s">
-        <v>962</v>
+        <v>1163</v>
+      </c>
+      <c r="G186" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="K186" s="12" t="s">
+        <v>1164</v>
       </c>
       <c r="L186" s="13" t="s">
-        <v>963</v>
+        <v>1164</v>
       </c>
       <c r="N186" s="14" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="O186" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P186" s="16" t="s">
-        <v>208</v>
+        <v>92</v>
+      </c>
+      <c r="V186" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="X186" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="AK186" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM186" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:58">
       <c r="A187" s="2" t="s">
-        <v>793</v>
+        <v>1070</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>794</v>
+        <v>304</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>428</v>
+        <v>61</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>795</v>
+        <v>607</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="G187" s="22" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I187" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K187" s="22" t="s">
-        <v>887</v>
+        <v>1071</v>
+      </c>
+      <c r="K187" s="12" t="s">
+        <v>1072</v>
       </c>
       <c r="L187" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="N187" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N187" s="14" t="s">
         <v>69</v>
       </c>
       <c r="O187" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P187" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="R187" s="22" t="s">
-        <v>1040</v>
-      </c>
-      <c r="S187" s="22" t="s">
-        <v>1041</v>
-      </c>
-      <c r="X187" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ187" s="22" t="s">
-        <v>59</v>
+        <v>182</v>
+      </c>
+      <c r="AA187" s="21">
+        <v>2</v>
       </c>
       <c r="AL187" s="22" t="s">
-        <v>70</v>
+        <v>96</v>
+      </c>
+      <c r="AM187" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:58">
       <c r="A188" s="2" t="s">
-        <v>1174</v>
+        <v>795</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>428</v>
+        <v>249</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>1175</v>
+        <v>796</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>1170</v>
+        <v>797</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>1176</v>
+        <v>905</v>
+      </c>
+      <c r="I188" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="J188" s="22" t="s">
-        <v>1177</v>
+        <v>799</v>
       </c>
       <c r="K188" s="12" t="s">
-        <v>1156</v>
+        <v>800</v>
       </c>
       <c r="L188" s="13" t="s">
-        <v>1156</v>
+        <v>801</v>
       </c>
       <c r="N188" s="14" t="s">
-        <v>1157</v>
+        <v>69</v>
       </c>
       <c r="O188" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="X188" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ188" s="22" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="P188" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="AL188" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM188" s="21">
+        <v>4</v>
+      </c>
+      <c r="BE188" s="22" t="s">
         <v>59</v>
       </c>
       <c r="BF188" s="22" t="s">
@@ -13792,10 +13712,10 @@
     </row>
     <row r="189" spans="1:58">
       <c r="A189" s="2" t="s">
-        <v>1256</v>
+        <v>740</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>60</v>
@@ -13804,560 +13724,587 @@
         <v>518</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>1257</v>
+        <v>741</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>980</v>
+        <v>742</v>
       </c>
       <c r="G189" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="I189" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="J189" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="K189" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="I189" s="22" t="s">
-        <v>970</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="L189" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="N189" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="O189" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P189" s="22" t="s">
         <v>745</v>
       </c>
-      <c r="L189" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="N189" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O189" s="15" t="s">
-        <v>141</v>
+      <c r="R189" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="S189" s="22" t="s">
+        <v>747</v>
       </c>
       <c r="AK189" s="21">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AM189" s="21">
+        <v>2</v>
+      </c>
+      <c r="BD189" s="22" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="190" spans="1:58">
       <c r="A190" s="2" t="s">
-        <v>966</v>
+        <v>1152</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>967</v>
+        <v>1153</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="G190" s="22" t="s">
-        <v>968</v>
-      </c>
-      <c r="H190" s="22" t="s">
-        <v>969</v>
-      </c>
-      <c r="I190" s="22" t="s">
-        <v>970</v>
+        <v>1154</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>955</v>
       </c>
       <c r="K190" s="12" t="s">
-        <v>971</v>
+        <v>1155</v>
       </c>
       <c r="L190" s="13" t="s">
-        <v>245</v>
+        <v>1156</v>
       </c>
       <c r="N190" s="14" t="s">
-        <v>105</v>
+        <v>1157</v>
       </c>
       <c r="O190" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK190" s="21">
-        <v>2</v>
-      </c>
-      <c r="AV190" s="21">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="X190" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI190" s="21">
+        <v>6</v>
+      </c>
+      <c r="AJ190" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:58">
       <c r="A191" s="2" t="s">
-        <v>1187</v>
+        <v>1250</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>1188</v>
+        <v>667</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G191" s="22" t="s">
-        <v>981</v>
+        <v>1251</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I191" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J191" s="22" t="s">
+        <v>1253</v>
       </c>
       <c r="K191" s="12" t="s">
-        <v>1190</v>
+        <v>1254</v>
       </c>
       <c r="L191" s="13" t="s">
-        <v>1190</v>
+        <v>1255</v>
       </c>
       <c r="N191" s="14" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="O191" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="V191" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="X191" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK191" s="21">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="P191" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="AI191" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM191" s="21">
+        <v>2</v>
+      </c>
+      <c r="AV191" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX191" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF191" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:58">
       <c r="A192" s="2" t="s">
-        <v>1096</v>
+        <v>557</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>1097</v>
+        <v>559</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="K192" s="12" t="s">
-        <v>1098</v>
+        <v>882</v>
       </c>
       <c r="L192" s="13" t="s">
-        <v>1098</v>
+        <v>883</v>
       </c>
       <c r="N192" s="14" t="s">
-        <v>69</v>
+        <v>835</v>
       </c>
       <c r="O192" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA192" s="21">
-        <v>2</v>
-      </c>
-      <c r="AL192" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P192" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z192" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="AM192" s="21">
-        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:58">
       <c r="A193" s="2" t="s">
-        <v>821</v>
+        <v>1097</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>822</v>
+        <v>1098</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="I193" s="22" t="s">
-        <v>87</v>
+        <v>1099</v>
       </c>
       <c r="J193" s="22" t="s">
-        <v>825</v>
+        <v>1100</v>
       </c>
       <c r="K193" s="12" t="s">
-        <v>826</v>
+        <v>1101</v>
       </c>
       <c r="L193" s="13" t="s">
-        <v>827</v>
+        <v>1101</v>
       </c>
       <c r="N193" s="14" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="O193" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P193" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL193" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM193" s="21">
-        <v>4</v>
-      </c>
-      <c r="BE193" s="22" t="s">
-        <v>59</v>
+        <v>173</v>
+      </c>
+      <c r="AI193" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ193" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="BF193" s="22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:58">
       <c r="A194" s="2" t="s">
-        <v>766</v>
+        <v>994</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>518</v>
+        <v>305</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>767</v>
+        <v>995</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="G194" s="22" t="s">
-        <v>938</v>
-      </c>
-      <c r="I194" s="22" t="s">
-        <v>917</v>
-      </c>
-      <c r="J194" s="22" t="s">
-        <v>769</v>
+        <v>996</v>
       </c>
       <c r="K194" s="12" t="s">
-        <v>964</v>
+        <v>759</v>
       </c>
       <c r="L194" s="13" t="s">
-        <v>964</v>
+        <v>997</v>
       </c>
       <c r="N194" s="14" t="s">
-        <v>169</v>
+        <v>973</v>
       </c>
       <c r="O194" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P194" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="R194" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="S194" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="AK194" s="21">
+        <v>170</v>
+      </c>
+      <c r="X194" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL194" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM194" s="21">
         <v>5</v>
-      </c>
-      <c r="AM194" s="21">
-        <v>2</v>
-      </c>
-      <c r="BD194" s="22" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="195" spans="1:58">
       <c r="A195" s="2" t="s">
-        <v>1178</v>
+        <v>909</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>1179</v>
+        <v>910</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>981</v>
+        <v>911</v>
+      </c>
+      <c r="G195" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="I195" s="22" t="s">
+        <v>891</v>
       </c>
       <c r="K195" s="12" t="s">
-        <v>1181</v>
+        <v>913</v>
       </c>
       <c r="L195" s="13" t="s">
-        <v>1182</v>
+        <v>913</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>1183</v>
+        <v>914</v>
       </c>
       <c r="O195" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="X195" s="22" t="s">
-        <v>59</v>
+        <v>279</v>
+      </c>
+      <c r="P195" s="22" t="s">
+        <v>915</v>
       </c>
       <c r="AI195" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ195" s="22" t="s">
-        <v>70</v>
+        <v>96</v>
+      </c>
+      <c r="AL195" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM195" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:58">
       <c r="A196" s="2" t="s">
-        <v>1277</v>
+        <v>946</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>305</v>
+        <v>518</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>667</v>
+        <v>947</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>1279</v>
+        <v>948</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J196" s="22" t="s">
-        <v>1280</v>
+        <v>944</v>
       </c>
       <c r="K196" s="12" t="s">
-        <v>1281</v>
+        <v>949</v>
       </c>
       <c r="L196" s="13" t="s">
-        <v>1282</v>
+        <v>949</v>
       </c>
       <c r="N196" s="14" t="s">
-        <v>91</v>
+        <v>950</v>
       </c>
       <c r="O196" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P196" s="22" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="AI196" s="21">
         <v>1</v>
       </c>
-      <c r="AM196" s="21">
-        <v>2</v>
-      </c>
-      <c r="AV196" s="21">
-        <v>1</v>
-      </c>
-      <c r="AX196" s="22" t="s">
+      <c r="AK196" s="21">
+        <v>17</v>
+      </c>
+      <c r="BE196" s="22" t="s">
         <v>59</v>
       </c>
       <c r="BF196" s="22" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:58">
       <c r="A197" s="2" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>558</v>
+        <v>1189</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="I197" s="10" t="s">
-        <v>66</v>
+        <v>1190</v>
+      </c>
+      <c r="G197" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="J197" s="22" t="s">
+        <v>1191</v>
       </c>
       <c r="K197" s="12" t="s">
-        <v>908</v>
+        <v>1192</v>
       </c>
       <c r="L197" s="13" t="s">
-        <v>909</v>
+        <v>1192</v>
       </c>
       <c r="N197" s="14" t="s">
-        <v>861</v>
+        <v>664</v>
       </c>
       <c r="O197" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="P197" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="X197" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z197" s="22" t="s">
-        <v>96</v>
+        <v>951</v>
+      </c>
+      <c r="AK197" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM197" s="21">
+        <v>2</v>
+      </c>
+      <c r="AV197" s="21">
+        <v>16</v>
+      </c>
+      <c r="BF197" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:58">
       <c r="A198" s="2" t="s">
-        <v>1123</v>
+        <v>1277</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>81</v>
+        <v>1270</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>82</v>
+        <v>1271</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>1124</v>
+        <v>1278</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J198" s="22" t="s">
-        <v>1126</v>
+        <v>1279</v>
+      </c>
+      <c r="G198" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>1280</v>
       </c>
       <c r="K198" s="12" t="s">
-        <v>1127</v>
+        <v>1281</v>
       </c>
       <c r="L198" s="13" t="s">
-        <v>1127</v>
+        <v>1281</v>
       </c>
       <c r="N198" s="14" t="s">
-        <v>237</v>
+        <v>1282</v>
       </c>
       <c r="O198" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI198" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ198" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF198" s="22" t="s">
-        <v>70</v>
+        <v>228</v>
+      </c>
+      <c r="AV198" s="21">
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:58">
       <c r="A199" s="2" t="s">
-        <v>1020</v>
+        <v>952</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>1021</v>
+        <v>953</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>1022</v>
+        <v>954</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="H199" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="I199" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J199" s="22" t="s">
+        <v>957</v>
       </c>
       <c r="K199" s="12" t="s">
-        <v>785</v>
+        <v>958</v>
       </c>
       <c r="L199" s="13" t="s">
-        <v>1023</v>
+        <v>959</v>
       </c>
       <c r="N199" s="14" t="s">
-        <v>999</v>
+        <v>950</v>
       </c>
       <c r="O199" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="X199" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL199" s="22" t="s">
-        <v>133</v>
+        <v>960</v>
+      </c>
+      <c r="P199" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X199" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="AM199" s="21">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AT199" s="21">
+        <v>2</v>
+      </c>
+      <c r="AV199" s="21">
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:58">
       <c r="A200" s="2" t="s">
-        <v>935</v>
+        <v>884</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>936</v>
+        <v>721</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="G200" s="22" t="s">
-        <v>938</v>
+        <v>791</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>885</v>
       </c>
       <c r="I200" s="22" t="s">
-        <v>917</v>
+        <v>66</v>
       </c>
       <c r="K200" s="12" t="s">
-        <v>939</v>
+        <v>886</v>
       </c>
       <c r="L200" s="13" t="s">
-        <v>939</v>
+        <v>886</v>
       </c>
       <c r="N200" s="14" t="s">
-        <v>940</v>
+        <v>794</v>
       </c>
       <c r="O200" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="P200" s="22" t="s">
-        <v>941</v>
+        <v>283</v>
+      </c>
+      <c r="X200" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE200" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF200" s="21">
+        <v>4</v>
       </c>
       <c r="AI200" s="21">
-        <v>4</v>
-      </c>
-      <c r="AJ200" s="22" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="AJ200" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="AL200" s="22" t="s">
         <v>141</v>
@@ -14368,57 +14315,60 @@
     </row>
     <row r="201" spans="1:58">
       <c r="A201" s="2" t="s">
-        <v>972</v>
+        <v>1102</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>518</v>
+        <v>254</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>973</v>
+        <v>1103</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>974</v>
-      </c>
-      <c r="I201" s="22" t="s">
-        <v>970</v>
+        <v>1104</v>
+      </c>
+      <c r="J201" s="22" t="s">
+        <v>1105</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>975</v>
+        <v>1106</v>
       </c>
       <c r="L201" s="13" t="s">
-        <v>975</v>
+        <v>1106</v>
       </c>
       <c r="N201" s="14" t="s">
-        <v>976</v>
+        <v>1107</v>
       </c>
       <c r="O201" s="15" t="s">
-        <v>977</v>
+        <v>93</v>
       </c>
       <c r="AI201" s="21">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="AJ201" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="AK201" s="21">
-        <v>17</v>
-      </c>
-      <c r="BE201" s="22" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="AM201" s="21">
+        <v>2</v>
       </c>
       <c r="BF201" s="22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:58">
       <c r="A202" s="2" t="s">
-        <v>619</v>
+        <v>1193</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>304</v>
@@ -14427,307 +14377,48 @@
         <v>61</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G202" s="22" t="s">
-        <v>981</v>
-      </c>
-      <c r="J202" s="22" t="s">
-        <v>1217</v>
+        <v>1195</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="J202" s="11" t="s">
+        <v>1196</v>
       </c>
       <c r="K202" s="12" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="L202" s="13" t="s">
-        <v>1218</v>
+        <v>1198</v>
       </c>
       <c r="N202" s="14" t="s">
         <v>664</v>
       </c>
       <c r="O202" s="15" t="s">
-        <v>977</v>
+        <v>1199</v>
       </c>
       <c r="AK202" s="21">
+        <v>6</v>
+      </c>
+      <c r="AM202" s="21">
+        <v>8</v>
+      </c>
+      <c r="AR202" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS202" s="21">
         <v>1</v>
       </c>
-      <c r="AM202" s="21">
-        <v>2</v>
+      <c r="AT202" s="21">
+        <v>6</v>
       </c>
       <c r="AV202" s="21">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="BF202" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="203" spans="1:58">
-      <c r="A203" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G203" s="22" t="s">
-        <v>904</v>
-      </c>
-      <c r="J203" s="11" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K203" s="12" t="s">
-        <v>1308</v>
-      </c>
-      <c r="L203" s="13" t="s">
-        <v>1308</v>
-      </c>
-      <c r="N203" s="14" t="s">
-        <v>1309</v>
-      </c>
-      <c r="O203" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV203" s="21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="204" spans="1:58">
-      <c r="A204" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="H204" s="22" t="s">
-        <v>982</v>
-      </c>
-      <c r="I204" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J204" s="22" t="s">
-        <v>983</v>
-      </c>
-      <c r="K204" s="12" t="s">
-        <v>984</v>
-      </c>
-      <c r="L204" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="N204" s="14" t="s">
-        <v>976</v>
-      </c>
-      <c r="O204" s="15" t="s">
-        <v>986</v>
-      </c>
-      <c r="P204" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="X204" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM204" s="21">
-        <v>4</v>
-      </c>
-      <c r="AT204" s="21">
-        <v>2</v>
-      </c>
-      <c r="AV204" s="21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:58">
-      <c r="A205" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="I205" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K205" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="L205" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="N205" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="O205" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="X205" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE205" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF205" s="21">
-        <v>4</v>
-      </c>
-      <c r="AI205" s="21">
-        <v>3</v>
-      </c>
-      <c r="AJ205" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL205" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM205" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:58">
-      <c r="A206" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J206" s="22" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K206" s="12" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L206" s="13" t="s">
-        <v>1132</v>
-      </c>
-      <c r="N206" s="14" t="s">
-        <v>1133</v>
-      </c>
-      <c r="O206" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI206" s="21">
-        <v>27</v>
-      </c>
-      <c r="AJ206" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK206" s="21">
-        <v>9</v>
-      </c>
-      <c r="AM206" s="21">
-        <v>2</v>
-      </c>
-      <c r="BF206" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="207" spans="1:58">
-      <c r="A207" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G207" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="J207" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K207" s="12" t="s">
-        <v>1223</v>
-      </c>
-      <c r="L207" s="13" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N207" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="O207" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AK207" s="21">
-        <v>6</v>
-      </c>
-      <c r="AM207" s="21">
-        <v>8</v>
-      </c>
-      <c r="AR207" s="21">
-        <v>3</v>
-      </c>
-      <c r="AS207" s="21">
-        <v>1</v>
-      </c>
-      <c r="AT207" s="21">
-        <v>6</v>
-      </c>
-      <c r="AV207" s="21">
-        <v>115</v>
-      </c>
-      <c r="BF207" s="22" t="s">
         <v>70</v>
       </c>
     </row>
